--- a/Income/CAT_inc.xlsx
+++ b/Income/CAT_inc.xlsx
@@ -2167,16 +2167,16 @@
         <v>0.2921</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2909</v>
+        <v>0.295</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3014</v>
+        <v>0.3053</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3088</v>
+        <v>0.3123</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3158</v>
+        <v>0.3191</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.3182</v>
@@ -2294,7 +2294,7 @@
         <v>0.1232</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1299</v>
+        <v>0.1298</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.1452</v>
@@ -2421,13 +2421,13 @@
         <v>0.0957</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1013</v>
+        <v>0.1012</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1196</v>
+        <v>0.1195</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1386</v>
+        <v>0.1385</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.1452</v>
@@ -2551,7 +2551,7 @@
         <v>0.076</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.0891</v>
+        <v>0.089</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0.1041</v>
@@ -3691,16 +3691,16 @@
         <v>0.1751</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.1806</v>
+        <v>0.1838</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.1938</v>
+        <v>0.1968</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.206</v>
+        <v>0.2087</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2134</v>
+        <v>0.216</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.213</v>
@@ -3821,7 +3821,7 @@
         <v>0.1533</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1231</v>
+        <v>0.123</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0.1358</v>
